--- a/anexos propios/CONSOLIDADO RESPUESTAS DE ENCUESTAS.xlsx
+++ b/anexos propios/CONSOLIDADO RESPUESTAS DE ENCUESTAS.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE.PALACIO\Documents\mongrafia\anexos propios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05D8D05-C00C-4BE5-B0C7-20AD17226D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A429BD2-4C60-4CD3-8493-52E2994AB13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Resultados " sheetId="1" r:id="rId1"/>
+    <sheet name="Formato" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -579,27 +579,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -616,6 +595,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -695,6 +695,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Pregutas</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> del cuestionario</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -703,26 +733,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -735,7 +745,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AU$2</c:f>
+              <c:f>'Resultados '!$AU$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -749,7 +759,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Hoja1!$AS$3:$AT$16</c:f>
+              <c:f>'Resultados '!$AS$3:$AT$16</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="14"/>
                 <c:lvl>
@@ -845,7 +855,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AU$3:$AU$16</c:f>
+              <c:f>'Resultados '!$AU$3:$AU$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -905,7 +915,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$AU$2</c:f>
+              <c:f>'Resultados '!$AU$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -934,7 +944,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$AT$3:$AT$16</c:f>
+              <c:f>'Resultados '!$AT$3:$AT$16</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -985,7 +995,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$AU$3:$AU$16</c:f>
+              <c:f>'Resultados '!$AU$3:$AU$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1343,7 +1353,7 @@
           </c:dLbls>
           <c:xVal>
             <c:strRef>
-              <c:f>Hoja1!$C$21:$E$21</c:f>
+              <c:f>'Resultados '!$C$21:$E$21</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1360,7 +1370,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$C$22:$E$22</c:f>
+              <c:f>'Resultados '!$C$22:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2550,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AY16" sqref="AY16"/>
+    <sheetView topLeftCell="AM1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT12" sqref="AT12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2611,81 +2621,81 @@
       <c r="A3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45">
-        <v>1</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45">
-        <v>2</v>
-      </c>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45">
-        <v>3</v>
-      </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45">
-        <v>4</v>
-      </c>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46">
+      <c r="B3" s="55">
+        <v>1</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55">
+        <v>2</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55">
+        <v>3</v>
+      </c>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55">
+        <v>4</v>
+      </c>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="56">
         <v>5</v>
       </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="48">
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="54">
         <v>6</v>
       </c>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="45">
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="55">
         <v>7</v>
       </c>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45">
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55">
         <v>8</v>
       </c>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45">
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55">
         <v>9</v>
       </c>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45">
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="55">
         <v>10</v>
       </c>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="46">
+      <c r="AD3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="56">
         <v>11</v>
       </c>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48">
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="54">
         <v>12</v>
       </c>
-      <c r="AJ3" s="48"/>
-      <c r="AK3" s="48"/>
-      <c r="AL3" s="48">
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54">
         <v>13</v>
       </c>
-      <c r="AM3" s="48"/>
-      <c r="AN3" s="48"/>
-      <c r="AO3" s="48">
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54">
         <v>14</v>
       </c>
-      <c r="AP3" s="48"/>
-      <c r="AQ3" s="48"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
       <c r="AS3">
         <v>1</v>
       </c>
       <c r="AT3" s="29" t="str">
-        <f>Hoja2!D4</f>
+        <f>Formato!D4</f>
         <v>¿Cómo describirías la evolución del cultivo de café en la Vereda Buenos Aires desde 2000:?</v>
       </c>
       <c r="AU3">
@@ -2828,7 +2838,7 @@
         <v>2</v>
       </c>
       <c r="AT4" s="29" t="str">
-        <f>Hoja2!D8</f>
+        <f>Formato!D8</f>
         <v xml:space="preserve">¿Cómo ha sido los aportes que ha tenido el gobierno nacional, departamental y local en la sostenibilidad del cultivo de café? </v>
       </c>
       <c r="AU4">
@@ -2971,7 +2981,7 @@
         <v>3</v>
       </c>
       <c r="AT5" s="29" t="str">
-        <f>+Hoja2!D12</f>
+        <f>+Formato!D12</f>
         <v xml:space="preserve">¿Cómo calificarías la rentabilidad del cultivo de café en la Vereda Buenos Aires? </v>
       </c>
       <c r="AU5">
@@ -3114,7 +3124,7 @@
         <v>4</v>
       </c>
       <c r="AT6" s="29" t="str">
-        <f>+Hoja2!D16</f>
+        <f>+Formato!D16</f>
         <v xml:space="preserve">¿Qué impacto ha tenido el cultivo de café en la generación de empleo y desarrollo socioeconómico? </v>
       </c>
       <c r="AU6">
@@ -3247,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="AT7" s="29" t="str">
-        <f>+Hoja2!D20</f>
+        <f>+Formato!D20</f>
         <v xml:space="preserve">¿Cómo han sido los cambios en la calidad de vida de los agricultores cafeteros , desde pundo de vista calidad de vida? </v>
       </c>
       <c r="AU7">
@@ -3388,7 +3398,7 @@
         <v>6</v>
       </c>
       <c r="AT8" s="29" t="str">
-        <f>+Hoja2!D24</f>
+        <f>+Formato!D24</f>
         <v>¿cree que el comité  de cafeteros, soluciona problemas  en la cominidad?</v>
       </c>
       <c r="AU8">
@@ -3531,7 +3541,7 @@
         <v>7</v>
       </c>
       <c r="AT9" s="29" t="str">
-        <f>+Hoja2!D28</f>
+        <f>+Formato!D28</f>
         <v>¿Cómo han influido los precios internacionales del café en tus decisiones como productor? ¿Han sido buenos, regulares o sin cambios?</v>
       </c>
       <c r="AU9">
@@ -3674,7 +3684,7 @@
         <v>8</v>
       </c>
       <c r="AT10" s="29" t="str">
-        <f>+Hoja2!L4</f>
+        <f>+Formato!L4</f>
         <v>¿responda como hacido   las prácticas agrícolas debido a desafíos ambientales y climáticos?</v>
       </c>
       <c r="AU10">
@@ -3813,7 +3823,7 @@
         <v>9</v>
       </c>
       <c r="AT11" s="29" t="str">
-        <f>+Hoja2!L8</f>
+        <f>+Formato!L8</f>
         <v xml:space="preserve">¿las políticas gubernamentales y los programas de apoyo contribuyeron al desarrollo econmico? </v>
       </c>
       <c r="AU11">
@@ -3952,7 +3962,7 @@
         <v>10</v>
       </c>
       <c r="AT12" s="29" t="str">
-        <f>+Hoja2!L12</f>
+        <f>+Formato!L12</f>
         <v>¿Qué recomendaciones harías para mejorar la sostenibilidad económica y social del cultivo de café? ¿Necesidad de implementación: bueno, regular o sin cambios?</v>
       </c>
       <c r="AU12">
@@ -4095,7 +4105,7 @@
         <v>11</v>
       </c>
       <c r="AT13" s="29" t="str">
-        <f>+Hoja2!L16</f>
+        <f>+Formato!L16</f>
         <v>¿Cómo han impactado las fluctuaciones en la producción mundial de café en tu cultivo local?</v>
       </c>
       <c r="AU13">
@@ -4234,7 +4244,7 @@
         <v>12</v>
       </c>
       <c r="AT14" s="29" t="str">
-        <f>+Hoja2!L20</f>
+        <f>+Formato!L20</f>
         <v>¿Cómo han influido los cambios en los precios internacionales del café en tus ingresos como productor local?</v>
       </c>
       <c r="AU14">
@@ -4419,7 +4429,7 @@
         <v>13</v>
       </c>
       <c r="AT15" s="29" t="str">
-        <f>+Hoja2!L24</f>
+        <f>+Formato!L24</f>
         <v xml:space="preserve">¿Has notado cambios en la demanda de café a nivel local? ¿Cómo han afectado tus operaciones? </v>
       </c>
       <c r="AU15">
@@ -4431,96 +4441,96 @@
       <c r="A16" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="49">
+      <c r="B16" s="51">
         <f>B15+C15+D15</f>
         <v>56</v>
       </c>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="49">
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="51">
         <f>E15+F15+G15</f>
         <v>85</v>
       </c>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="49">
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="51">
         <f>H15+I15+J15</f>
         <v>55</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="49">
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="51">
         <f>K15+L15+M15</f>
         <v>68</v>
       </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="49">
+      <c r="L16" s="52"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="51">
         <f>N15+O15+P15</f>
         <v>62</v>
       </c>
-      <c r="O16" s="50"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="49">
+      <c r="O16" s="52"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="51">
         <f>Q15+R15+S15</f>
         <v>73</v>
       </c>
-      <c r="R16" s="50"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="49">
+      <c r="R16" s="52"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="51">
         <f>T15+U15+V15</f>
         <v>55</v>
       </c>
-      <c r="U16" s="50"/>
-      <c r="V16" s="51"/>
-      <c r="W16" s="49">
+      <c r="U16" s="52"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="51">
         <f>W15+X15+Y15</f>
         <v>75</v>
       </c>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="49">
+      <c r="X16" s="52"/>
+      <c r="Y16" s="53"/>
+      <c r="Z16" s="51">
         <f>Z15+AA15+AB15</f>
         <v>63</v>
       </c>
-      <c r="AA16" s="50"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="49">
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="51">
         <f t="shared" ref="AC16" si="3">AC15+AD15+AE15</f>
         <v>69</v>
       </c>
-      <c r="AD16" s="50"/>
-      <c r="AE16" s="51"/>
-      <c r="AF16" s="49">
+      <c r="AD16" s="52"/>
+      <c r="AE16" s="53"/>
+      <c r="AF16" s="51">
         <f t="shared" ref="AF16" si="4">AF15+AG15+AH15</f>
         <v>74</v>
       </c>
-      <c r="AG16" s="50"/>
-      <c r="AH16" s="51"/>
-      <c r="AI16" s="49">
+      <c r="AG16" s="52"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="51">
         <f t="shared" ref="AI16" si="5">AI15+AJ15+AK15</f>
         <v>54</v>
       </c>
-      <c r="AJ16" s="50"/>
-      <c r="AK16" s="51"/>
-      <c r="AL16" s="49">
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="53"/>
+      <c r="AL16" s="51">
         <f t="shared" ref="AL16" si="6">AL15+AM15+AN15</f>
         <v>59</v>
       </c>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="51"/>
-      <c r="AO16" s="49">
+      <c r="AM16" s="52"/>
+      <c r="AN16" s="53"/>
+      <c r="AO16" s="51">
         <f t="shared" ref="AO16" si="7">AO15+AP15+AQ15</f>
         <v>63</v>
       </c>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="51"/>
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="53"/>
       <c r="AS16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="AT16" s="29" t="str">
-        <f>+Hoja2!L28</f>
+        <f>+Formato!L28</f>
         <v>¿los efecto que ha tenido las tendencias en la demanda global de café en tu capacidad para comercializar tu producto a nivel local?</v>
       </c>
       <c r="AU16">
@@ -4530,76 +4540,76 @@
     </row>
     <row r="17" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="52" t="s">
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="55" t="s">
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="56"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="55" t="s">
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="56"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="52" t="s">
+      <c r="L18" s="49"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55" t="s">
+      <c r="O18" s="46"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="R18" s="56"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="52" t="s">
+      <c r="R18" s="49"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="53"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="55" t="s">
+      <c r="U18" s="46"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="57"/>
-      <c r="Z18" s="52" t="s">
+      <c r="X18" s="49"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="AA18" s="53"/>
-      <c r="AB18" s="54"/>
-      <c r="AC18" s="55" t="s">
+      <c r="AA18" s="46"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="52" t="s">
+      <c r="AD18" s="49"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="54"/>
-      <c r="AI18" s="55" t="s">
+      <c r="AG18" s="46"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="57"/>
-      <c r="AL18" s="52" t="s">
+      <c r="AJ18" s="49"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="AM18" s="53"/>
-      <c r="AN18" s="54"/>
-      <c r="AO18" s="55" t="s">
+      <c r="AM18" s="46"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="57"/>
+      <c r="AP18" s="49"/>
+      <c r="AQ18" s="50"/>
     </row>
     <row r="19" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="14"/>
@@ -4717,6 +4727,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="AL3:AN3"/>
+    <mergeCell ref="AO3:AQ3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AC16:AE16"/>
+    <mergeCell ref="AF16:AH16"/>
+    <mergeCell ref="AI16:AK16"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="T3:V3"/>
     <mergeCell ref="AL18:AN18"/>
     <mergeCell ref="AO18:AQ18"/>
     <mergeCell ref="AL16:AN16"/>
@@ -4733,32 +4769,6 @@
     <mergeCell ref="AC18:AE18"/>
     <mergeCell ref="AF18:AH18"/>
     <mergeCell ref="AI18:AK18"/>
-    <mergeCell ref="AL3:AN3"/>
-    <mergeCell ref="AO3:AQ3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AC16:AE16"/>
-    <mergeCell ref="AF16:AH16"/>
-    <mergeCell ref="AI16:AK16"/>
-    <mergeCell ref="AI3:AK3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4770,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D2:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="C17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:J6"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5453,6 +5463,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="373fdd0e-e8c1-4c03-b029-c2fba5113d81" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100C870EE9DD2E66C4EBCDF7F7FEB52DAA3" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="67affaeb3bef09214836af0c5212cb4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="373fdd0e-e8c1-4c03-b029-c2fba5113d81" xmlns:ns4="430d0bf4-40e9-46e3-ab48-d98664395398" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee6974c67cdc30e0276caa41ff7927ac" ns3:_="" ns4:_="">
     <xsd:import namespace="373fdd0e-e8c1-4c03-b029-c2fba5113d81"/>
@@ -5705,24 +5732,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69CC37B0-1D22-431F-906A-90C574398FD3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="430d0bf4-40e9-46e3-ab48-d98664395398"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="373fdd0e-e8c1-4c03-b029-c2fba5113d81"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="373fdd0e-e8c1-4c03-b029-c2fba5113d81" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A7454C-53CD-4451-9F48-1D3A2D5ADAA3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B24684F-5CEB-452C-9896-05DD610B7666}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5739,29 +5774,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A7454C-53CD-4451-9F48-1D3A2D5ADAA3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69CC37B0-1D22-431F-906A-90C574398FD3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="430d0bf4-40e9-46e3-ab48-d98664395398"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="373fdd0e-e8c1-4c03-b029-c2fba5113d81"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>